--- a/medicine/Enfance/Carole_Martinez/Carole_Martinez.xlsx
+++ b/medicine/Enfance/Carole_Martinez/Carole_Martinez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carole Martinez, née le 10 novembre 1966 à Créhange, est une romancière française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est un temps tentée par le théâtre et monte sa troupe à l'âge de 20 ans[1].
-Elle est professeur de français pendant plusieurs années et se lance finalement dans l'écriture en 2005. Alors qu'elle est en congé maternité, elle commence la rédaction de son premier roman qu'elle définit comme une œuvre « entre le conte et le roman ». Pour cela, elle s'inspire des histoires que sa grand-mère lui racontait autrefois[2].
-Son premier roman, Le Cœur cousu, sorti discrètement en février 2007, reçoit par la suite de nombreux prix[3],[4]. Son second roman, Du domaine des Murmures (2011) est nommé pour le prix Goncourt, le prix étant décerné à L'Art français de la guerre d'Alexis Jenni avec cinq voix, Carole Martinez en recueillant trois[5]. Elle obtient finalement le prix Goncourt des lycéens 2011[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est un temps tentée par le théâtre et monte sa troupe à l'âge de 20 ans.
+Elle est professeur de français pendant plusieurs années et se lance finalement dans l'écriture en 2005. Alors qu'elle est en congé maternité, elle commence la rédaction de son premier roman qu'elle définit comme une œuvre « entre le conte et le roman ». Pour cela, elle s'inspire des histoires que sa grand-mère lui racontait autrefois.
+Son premier roman, Le Cœur cousu, sorti discrètement en février 2007, reçoit par la suite de nombreux prix,. Son second roman, Du domaine des Murmures (2011) est nommé pour le prix Goncourt, le prix étant décerné à L'Art français de la guerre d'Alexis Jenni avec cinq voix, Carole Martinez en recueillant trois. Elle obtient finalement le prix Goncourt des lycéens 2011.
 </t>
         </is>
       </c>
@@ -546,11 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-((Martinez, C. P.)), ((Festival Étonnants voyageurs)), Laissez galoper votre imagination à travers l’Europe: recueil de nouvelles de jeunes de 11 à 18 ans, Association Etonnnats voyageurs, 2013
-Le Cri du livre, Paris, Pocket, coll. « Jeunesse », 1998, 175 p.  (ISBN 978-2266079945). Réédité avec le titre L’Œil du témoin, Paris, éditions Rageot, coll. « Heure noire », 2011, 192 p.  (ISBN 978-2700236156)
-Romans
-Le Cœur cousu, Paris, éditions Gallimard, coll. « Blanche », 2007, 430 p.  (ISBN 978-2070783052)
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>((Martinez, C. P.)), ((Festival Étonnants voyageurs)), Laissez galoper votre imagination à travers l’Europe: recueil de nouvelles de jeunes de 11 à 18 ans, Association Etonnnats voyageurs, 2013
+Le Cri du livre, Paris, Pocket, coll. « Jeunesse », 1998, 175 p.  (ISBN 978-2266079945). Réédité avec le titre L’Œil du témoin, Paris, éditions Rageot, coll. « Heure noire », 2011, 192 p.  (ISBN 978-2700236156)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Cœur cousu, Paris, éditions Gallimard, coll. « Blanche », 2007, 430 p.  (ISBN 978-2070783052)
 - Prix Renaudot des lycéens 2007
 - Prix Ulysse 2007
 - Prix Emmanuel-Roblès 2007
@@ -559,22 +612,124 @@
 - Bourse de la Découverte - Prix Découverte Prince Pierre de Monaco 2007
 - Bourse Thyde Monnier 2007
 - Prix des lycéens de Monaco
-Du domaine des Murmures[7], Paris, éditions Gallimard, coll. « Blanche », 2011, 208 p.  (ISBN 978-2070131495)
-- Prix Goncourt des lycéens 2011[6]
-- Prix Marcel-Aymé 2012[8]
+Du domaine des Murmures, Paris, éditions Gallimard, coll. « Blanche », 2011, 208 p.  (ISBN 978-2070131495)
+- Prix Goncourt des lycéens 2011
+- Prix Marcel-Aymé 2012
 La terre qui penche, Paris, éditions Gallimard, coll. « Blanche », 2015,  (ISBN 9782070149926)
-Les roses fauves, Paris, éditions Gallimard, coll. « Blanche », 2020,  (ISBN 9782072788918)
-Bande Dessinée
-Bouche d'ombre, dessin et  couleurs de Maud Begon, Casterman
-Lou 1985[9], 68 p., 2014 (DL 05/2014)  (ISBN 978-2-203-06664-9)
+Les roses fauves, Paris, éditions Gallimard, coll. « Blanche », 2020,  (ISBN 9782072788918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande Dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bouche d'ombre, dessin et  couleurs de Maud Begon, Casterman
+Lou 1985, 68 p., 2014 (DL 05/2014)  (ISBN 978-2-203-06664-9)
 Lucie 1900, 88 p., avec 5 pages de supplément en fin d'album, 2015 (DL 04/2015)  (ISBN 978-2-203-09061-3)
-Lucienne 1853[10], 95 p., avec un vernis sélectif sur la couverture, 2017 (DL 02/2017)  (ISBN 978-2-203-09748-3)
-Louise 1516, 112 p., 2019 (DL 08/2019)  (ISBN 978-2-203-12431-8)[11]
-Théâtre
-((Frèche, É.)), ((Huige, F.)), ((Le Callet, B.)), ((Martinez, C.)), ((Olmi, V.)), ((Périneau, F.)), ((Tuil, K.)), ((Vigan, D. de)), ((Zeniter, A.)), ((Ovaldé, V. P.)), La  vie: modes d’emploi, “L’Avant-scène théâtre”, DL 2013, dl  , cop. 2013 2013 (ISBN 978-2-7498-1266-3)
-Les Intrépides, Frontière(s): sept pièces courtes, (sept pièces écrites par Céline Champinot, Odile Cornuz, Carole Martinez, Marie Nimier, Karoline Rose SUN, Aïko Solovkine, Alice Zeniter), Avant-scène théâtre, 2021  (ISBN 978-2-7498-1512-1)[12]
-Nouvelles
-((Powers, R.)), ((Latour, B.)), ((Desesquelles, I.)), ((Autréaux, P.)), ((Absire, A.)), ((Châteaureynaud, G.-O.)), ((Martin, F.)), ((Campredon, J.)), ((Martinez, C.)), ((Lemaure, R.)), ((Thirion, J.)), ((Urien, E.)), ((Pagano, E.)), Des nouvelles du monde, Loubatières, impr 2014 (ISBN 978-2-86266-697-6)
+Lucienne 1853, 95 p., avec un vernis sélectif sur la couverture, 2017 (DL 02/2017)  (ISBN 978-2-203-09748-3)
+Louise 1516, 112 p., 2019 (DL 08/2019)  (ISBN 978-2-203-12431-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>((Frèche, É.)), ((Huige, F.)), ((Le Callet, B.)), ((Martinez, C.)), ((Olmi, V.)), ((Périneau, F.)), ((Tuil, K.)), ((Vigan, D. de)), ((Zeniter, A.)), ((Ovaldé, V. P.)), La  vie: modes d’emploi, “L’Avant-scène théâtre”, DL 2013, dl  , cop. 2013 2013 (ISBN 978-2-7498-1266-3)
+Les Intrépides, Frontière(s): sept pièces courtes, (sept pièces écrites par Céline Champinot, Odile Cornuz, Carole Martinez, Marie Nimier, Karoline Rose SUN, Aïko Solovkine, Alice Zeniter), Avant-scène théâtre, 2021  (ISBN 978-2-7498-1512-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Martinez</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">((Powers, R.)), ((Latour, B.)), ((Desesquelles, I.)), ((Autréaux, P.)), ((Absire, A.)), ((Châteaureynaud, G.-O.)), ((Martin, F.)), ((Campredon, J.)), ((Martinez, C.)), ((Lemaure, R.)), ((Thirion, J.)), ((Urien, E.)), ((Pagano, E.)), Des nouvelles du monde, Loubatières, impr 2014 (ISBN 978-2-86266-697-6)
 ((Cusset, C.)), ((De Luca, E.)), ((Del Amo, J.-B.)), ((Delzongle, S.)), ((Lang, L.)), ((Martinez, C.)), ((Rash, R.)), ((Rufin, J.-C.)), ((Sabolo, M.)), ((Autissier, I. P.)), À nous la Terre !: les écrivains s’engagent pour demain, Gallimard, 2021 (ISBN 978-2-07-295348-4)
 </t>
         </is>
